--- a/data/PCG.xlsx
+++ b/data/PCG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuyx1\Documents\Github\DMPF-CCS23\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D9D2FC-C81A-4949-A4A7-5FFFDA3E1FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5881D4BD-21D0-4297-9ECF-9F2CBB77A606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="-60" windowWidth="14580" windowHeight="12465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12135" yWindow="-60" windowWidth="14580" windowHeight="12465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,17 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="32">
   <si>
     <t>PCG for OLE from Ring-LPN: application of DMPF</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
     <t>λ</t>
   </si>
   <si>
@@ -127,6 +121,15 @@
   </si>
   <si>
     <t>t=5776</t>
+  </si>
+  <si>
+    <t>t (DMPF points = noise weight^2)</t>
+  </si>
+  <si>
+    <t>N (DMPF domain = degree/2)</t>
+  </si>
+  <si>
+    <t>deg-N MULT</t>
   </si>
 </sst>
 </file>
@@ -469,8 +472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,15 +496,15 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1">
         <f>POWER(2,21)</f>
@@ -518,7 +521,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1">
         <v>25</v>
@@ -532,7 +535,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1">
         <v>128</v>
@@ -546,7 +549,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" s="1">
         <v>8</v>
@@ -560,7 +563,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>128</v>
@@ -574,7 +577,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>1.5</v>
@@ -588,7 +591,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -600,12 +603,12 @@
         <v>3</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>1.23</v>
@@ -617,28 +620,28 @@
         <v>1.23</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B14" s="1">
         <v>1.23</v>
@@ -650,28 +653,28 @@
         <v>1.23</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" s="1">
         <f>3.6*0.001</f>
@@ -686,35 +689,40 @@
         <v>3.6000000000000003E-3</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B23" s="1">
         <f>B5*(B6+2)*LOG(B4,2)+B5*B8</f>
@@ -735,7 +743,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <f>B5*B4*B17*(2*B6+2)/128+B5*B4*B17*B8/128</f>
@@ -756,40 +764,88 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="B25" s="1">
+        <f>B7*SQRT(B5)*(LOG(B4/2,2)+B8)+POWER(B7,2)*B23</f>
+        <v>4578720</v>
+      </c>
+      <c r="C25" s="1">
+        <f>B7*SQRT(B5)*(LOG(B4/2,2)+B8)+POWER(B7,2)*C23</f>
+        <v>5728236.8687902866</v>
+      </c>
+      <c r="D25" s="1">
+        <f>B7*SQRT(B5)*(LOG(B4/2,2)+B8)+POWER(B7,2)*D23</f>
+        <v>6191520</v>
+      </c>
+      <c r="E25" s="1">
+        <f>B7*SQRT(B5)*(LOG(B4/2,2)+B8)+POWER(B7,2)*E23</f>
+        <v>5630464</v>
+      </c>
+      <c r="F25" s="1">
+        <f>B7*SQRT(B5)*(LOG(B4/2,2)+B8)+POWER(B7,2)*F23</f>
+        <v>5920</v>
+      </c>
+      <c r="G25" s="1">
+        <f>B7*SQRT(B5)*(LOG(B4/2,2)+B8)+POWER(B7,2)*G23</f>
+        <v>5920</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="B26" s="1">
+        <f>POWER(B7,2)*B18+POWER(B7,2)*B24</f>
+        <v>36427530.240000002</v>
+      </c>
+      <c r="C26" s="1">
+        <f>POWER(B7,2)*B18+POWER(B7,2)*C24</f>
+        <v>4371303.6288000001</v>
+      </c>
+      <c r="D26" s="1">
+        <f>POWER(B7,2)*B18+POWER(B7,2)*D24</f>
+        <v>1638295.1424000002</v>
+      </c>
+      <c r="E26" s="1">
+        <f>POWER(B7,2)*B18+POWER(B7,2)*E24</f>
+        <v>973917.38880000007</v>
+      </c>
+      <c r="F26" s="1">
+        <f>POWER(B7,2)*B18+POWER(B7,2)*F24</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <f>POWER(B7,2)*B18+POWER(B7,2)*G24</f>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B29" s="1">
         <f>C5*(C6+2)*LOG(C4,2)+C5*C8</f>
@@ -810,7 +866,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B30" s="1">
         <f>C5*C4*C17*(2*C6+2)/128+C5*C4*C17*C8/128</f>
@@ -831,40 +887,56 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="B31" s="1">
+        <f>C7*SQRT(C5)*(LOG(C4/2,2)+C8)+POWER(C7,2)*B29</f>
+        <v>11715840</v>
+      </c>
+      <c r="C31" s="1">
+        <f>C7*SQRT(C5)*(LOG(C4/2,2)+C8)+POWER(C7,2)*C29</f>
+        <v>11977984</v>
+      </c>
+      <c r="D31" s="1">
+        <f>C7*SQRT(C5)*(LOG(C4/2,2)+C8)+POWER(C7,2)*D29</f>
+        <v>55584000</v>
+      </c>
+      <c r="E31" s="1">
+        <f>C7*SQRT(C5)*(LOG(C4/2,2)+C8)+POWER(C7,2)*E29</f>
+        <v>14408304.639999999</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B35" s="1">
         <f>D5*(D6+2)*LOG(D4,2)+D5*D8</f>
@@ -885,7 +957,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B36" s="1">
         <f>D5*D4*D17*(2*D6+2)/128+D5*D4*D17*D8/128</f>
@@ -906,12 +978,44 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="B37" s="1">
+        <f>D7*SQRT(D5)*(LOG(D4/2,2)+D8)+POWER(D7,2)*B35</f>
+        <v>66053728</v>
+      </c>
+      <c r="C37" s="1">
+        <f>D7*SQRT(D5)*(LOG(D4/2,2)+D8)+POWER(D7,2)*C35</f>
+        <v>47277298.264465772</v>
+      </c>
+      <c r="D37" s="1">
+        <f>D7*SQRT(D5)*(LOG(D4/2,2)+D8)+POWER(D7,2)*D35</f>
+        <v>5669928928</v>
+      </c>
+      <c r="E37" s="1">
+        <f>D7*SQRT(D5)*(LOG(D4/2,2)+D8)+POWER(D7,2)*E35</f>
+        <v>81240911.359999999</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="B38" s="1">
+        <f>D7*SQRT(D5)*(LOG(D4/2,2)+D8)+POWER(D7,2)*B36</f>
+        <v>526036032.66560006</v>
+      </c>
+      <c r="C38" s="1">
+        <f>D7*SQRT(D5)*(LOG(D4/2,2)+D8)+POWER(D7,2)*C36</f>
+        <v>295702.4768</v>
+      </c>
+      <c r="D38" s="1">
+        <f>D7*SQRT(D5)*(LOG(D4/2,2)+D8)+POWER(D7,2)*D36</f>
+        <v>2838551.7056</v>
+      </c>
+      <c r="E38" s="1">
+        <f>D7*SQRT(D5)*(LOG(D4/2,2)+D8)+POWER(D7,2)*E36</f>
+        <v>83365.836800000005</v>
       </c>
     </row>
   </sheetData>
